--- a/applications/EHY_tools/overview_functions.xlsx
+++ b/applications/EHY_tools/overview_functions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Script</t>
   </si>
@@ -46,6 +46,36 @@
   </si>
   <si>
     <t>This function crops the surrounding area of a figure based on the background color.</t>
+  </si>
+  <si>
+    <t>This function returns the status of the Delft3D-FM simulation in percentages</t>
+  </si>
+  <si>
+    <t>EHY_dflowfm_status</t>
+  </si>
+  <si>
+    <t>EHY_find_mn_location</t>
+  </si>
+  <si>
+    <t>Find the m,n-location(s) of your x,y-location(s) in a structured Delft3D/SIMONA grid.</t>
+  </si>
+  <si>
+    <t>As OET function plot_google_map, but also works with Matlab versions newer than Matlab 2014.</t>
+  </si>
+  <si>
+    <t>EHY_getmodeldata</t>
+  </si>
+  <si>
+    <t>EHY_plot_google_map</t>
+  </si>
+  <si>
+    <t>Extracts time series (of water levels), from SDS file, Sobek3 file, implic output etc.</t>
+  </si>
+  <si>
+    <t>EHY_wait</t>
+  </si>
+  <si>
+    <t>Onces TIME is reached, this function runs the PATH</t>
   </si>
 </sst>
 </file>
@@ -401,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,39 +457,98 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42856</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42826</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42826</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B7" s="2">
         <v>42826</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>42795</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>42795</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <autoFilter ref="A1:C1">
+    <sortState ref="A2:C9">
+      <sortCondition descending="1" ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/applications/EHY_tools/overview_functions.xlsx
+++ b/applications/EHY_tools/overview_functions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Script</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Onces TIME is reached, this function runs the PATH</t>
+  </si>
+  <si>
+    <t>EHY_opendap</t>
+  </si>
+  <si>
+    <t>Retrieve measurement data from Deltares Opendap server</t>
   </si>
 </sst>
 </file>
@@ -125,11 +131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,9 +438,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -543,6 +550,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4">
+        <v>42926</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1">
     <sortState ref="A2:C9">

--- a/applications/EHY_tools/overview_functions.xlsx
+++ b/applications/EHY_tools/overview_functions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Script</t>
   </si>
@@ -48,12 +48,6 @@
     <t>This function crops the surrounding area of a figure based on the background color.</t>
   </si>
   <si>
-    <t>This function returns the status of the Delft3D-FM simulation in percentages</t>
-  </si>
-  <si>
-    <t>EHY_dflowfm_status</t>
-  </si>
-  <si>
     <t>EHY_find_mn_location</t>
   </si>
   <si>
@@ -82,6 +76,18 @@
   </si>
   <si>
     <t>Retrieve measurement data from Deltares Opendap server</t>
+  </si>
+  <si>
+    <t>EHY_convert</t>
+  </si>
+  <si>
+    <t>EHY_simulationStatus</t>
+  </si>
+  <si>
+    <t>Converts the inputFile to a file with the outputExt.</t>
+  </si>
+  <si>
+    <t>This function returns the status of a D-FLOW FM, Delft3D and SIMONA simulation.</t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,73 +470,73 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>42856</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>42856</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>42826</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>42826</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>42826</v>
+        <v>42795</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>42795</v>
@@ -543,8 +549,8 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2">
-        <v>42795</v>
+      <c r="B9" s="4">
+        <v>42917</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -554,11 +560,22 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4">
-        <v>42926</v>
+      <c r="B10" s="2">
+        <v>43313</v>
       </c>
       <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>20</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/applications/EHY_tools/overview_functions.xlsx
+++ b/applications/EHY_tools/overview_functions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Script</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>This function returns the status of a D-FLOW FM, Delft3D and SIMONA simulation.</t>
+  </si>
+  <si>
+    <t>EHY_model2GoogleEarth</t>
+  </si>
+  <si>
+    <t>EHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on an D-FLOW FM or Delft3D file (.mdu / .mdf) the model input files are converted to kml, so they can be visualised in Google Earth. </t>
+  </si>
+  <si>
+    <t>By running 'EHY' a list of user-friendly EHY_tools is shown to the user.</t>
   </si>
 </sst>
 </file>
@@ -444,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +573,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2">
-        <v>43313</v>
+        <v>42948</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -572,10 +584,32 @@
         <v>20</v>
       </c>
       <c r="B11" s="2">
-        <v>43313</v>
+        <v>42948</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42979</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42979</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
